--- a/scraper/top_remaining_spreadsheets_states/top_remaining_CT.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_CT.xlsx
@@ -44,24 +44,27 @@
     <t>DECADES OF DOLLARS</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>CLOVER</t>
+  </si>
+  <si>
+    <t>MATCH 3 TRIPLER</t>
+  </si>
+  <si>
+    <t>FAST $50s</t>
+  </si>
+  <si>
+    <t>LUCKY GEMS</t>
   </si>
   <si>
     <t>FIND THE 9s</t>
   </si>
   <si>
-    <t>MATCH 3 TRIPLER</t>
-  </si>
-  <si>
-    <t>LUCKY GEMS</t>
-  </si>
-  <si>
     <t>ACES HIGH 25TH ED.</t>
   </si>
   <si>
-    <t>FAST $50s</t>
-  </si>
-  <si>
     <t>LOTS OF LOOT</t>
   </si>
   <si>
@@ -143,12 +146,12 @@
     <t>DIAMONDS AND GOLD</t>
   </si>
   <si>
+    <t>LOTERIA GRANDE</t>
+  </si>
+  <si>
     <t>3X THE CASH 6TH ED.</t>
   </si>
   <si>
-    <t>LOTERIA GRANDE</t>
-  </si>
-  <si>
     <t>3X THE CASH 7TH EDITION</t>
   </si>
   <si>
@@ -161,12 +164,12 @@
     <t>CASHWORD 26</t>
   </si>
   <si>
+    <t>3X THE CASH 8TH EDITION</t>
+  </si>
+  <si>
     <t>WIN UP TO $5,000 A MONTH FOR LIFE</t>
   </si>
   <si>
-    <t>3X THE CASH 8TH EDITION</t>
-  </si>
-  <si>
     <t>50 GRAND</t>
   </si>
   <si>
@@ -206,12 +209,12 @@
     <t>HOLIDAY WISHES</t>
   </si>
   <si>
+    <t>75 GRAND</t>
+  </si>
+  <si>
     <t>SUPER CA$HWORD 19</t>
   </si>
   <si>
-    <t>75 GRAND</t>
-  </si>
-  <si>
     <t>5X THE MONEY 11TH EDITION</t>
   </si>
   <si>
@@ -224,18 +227,18 @@
     <t>SPICY 7s</t>
   </si>
   <si>
+    <t>$5,000 OVERLOAD</t>
+  </si>
+  <si>
+    <t>SUPER CASHWORD 20</t>
+  </si>
+  <si>
+    <t>WIN UP TO $7,500 A MONTH FOR LIFE 3RD ED</t>
+  </si>
+  <si>
     <t>CASH CELEBRATION</t>
   </si>
   <si>
-    <t>$5,000 OVERLOAD</t>
-  </si>
-  <si>
-    <t>SUPER CASHWORD 20</t>
-  </si>
-  <si>
-    <t>WIN UP TO $7,500 A MONTH FOR LIFE 3RD ED</t>
-  </si>
-  <si>
     <t>BLACKJACK SUPREME</t>
   </si>
   <si>
@@ -260,21 +263,21 @@
     <t>PINBALL WIZARD XXII</t>
   </si>
   <si>
+    <t>10X CASH 13TH EDITION</t>
+  </si>
+  <si>
+    <t>$100,000 CASHWORD 9</t>
+  </si>
+  <si>
+    <t>PREMIERE PLAY</t>
+  </si>
+  <si>
+    <t>WIN UP TO $10,000 A MONTH FOR LIFE 2nd ED</t>
+  </si>
+  <si>
     <t>HOT -N- SPICY 7s</t>
   </si>
   <si>
-    <t>10X CASH 13TH EDITION</t>
-  </si>
-  <si>
-    <t>$100,000 CASHWORD 9</t>
-  </si>
-  <si>
-    <t>PREMIERE PLAY</t>
-  </si>
-  <si>
-    <t>WIN UP TO $10,000 A MONTH FOR LIFE 2nd ED</t>
-  </si>
-  <si>
     <t>ESCAPE TO FOXWOODS®</t>
   </si>
   <si>
@@ -290,6 +293,9 @@
     <t>$100,000 CASHWORD 8</t>
   </si>
   <si>
+    <t>2019-03-10</t>
+  </si>
+  <si>
     <t>STAR PLATINUM PLAY</t>
   </si>
   <si>
@@ -324,12 +330,6 @@
   </si>
   <si>
     <t>30X CASH 5TH EDITION</t>
-  </si>
-  <si>
-    <t>30X CASH 4TH EDITION</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
   </si>
 </sst>
 </file>
@@ -727,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1351</v>
+        <v>1477</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -767,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1399</v>
+        <v>1471</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -787,10 +787,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1433</v>
+        <v>1399</v>
       </c>
       <c r="E6">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -807,10 +807,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1471</v>
+        <v>1351</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -827,10 +827,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1404</v>
+        <v>1433</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1431</v>
+        <v>1404</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -867,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1334</v>
+        <v>1431</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -887,10 +887,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -907,10 +907,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1461</v>
+        <v>1324</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -927,10 +927,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1359</v>
+        <v>1461</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -947,7 +947,7 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>1387</v>
+        <v>1359</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1342</v>
+        <v>1387</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -981,19 +981,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1342</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>1427</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1001,13 +1001,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>1412</v>
+        <v>1427</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1021,13 +1021,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1041,13 +1041,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1061,16 +1061,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1081,16 +1081,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>1432</v>
+        <v>1376</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1101,16 +1101,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1466</v>
+        <v>1432</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1121,13 +1121,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>1446</v>
+        <v>1466</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1141,16 +1141,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
-        <v>1424</v>
+        <v>1446</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1161,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>1442</v>
+        <v>1424</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1181,16 +1181,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26">
-        <v>1358</v>
+        <v>1442</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1201,16 +1201,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>1467</v>
+        <v>1358</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1221,16 +1221,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
-        <v>1398</v>
+        <v>1467</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1241,16 +1241,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>1462</v>
+        <v>1398</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1261,19 +1261,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30">
-        <v>1375</v>
+        <v>1462</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1281,19 +1281,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>1375</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31">
-        <v>1374</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1301,13 +1301,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32">
-        <v>1331</v>
+        <v>1374</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
@@ -1341,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>1355</v>
+        <v>1331</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1361,13 +1361,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>1421</v>
+        <v>1355</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1381,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
       </c>
       <c r="D36">
-        <v>1473</v>
+        <v>1421</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1401,16 +1401,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37">
-        <v>1436</v>
+        <v>1473</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1421,16 +1421,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38">
-        <v>1373</v>
+        <v>1436</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
@@ -1461,16 +1461,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
       </c>
       <c r="D40">
-        <v>1447</v>
+        <v>1373</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1481,16 +1481,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1413</v>
+        <v>1447</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1501,13 +1501,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1362</v>
+        <v>1413</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
       <c r="D44">
-        <v>1405</v>
+        <v>1361</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1561,19 +1561,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
         <v>55</v>
       </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
       <c r="D45">
-        <v>1304</v>
+        <v>1405</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1581,13 +1581,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46">
-        <v>1444</v>
+        <v>1304</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1601,13 +1601,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47">
-        <v>1415</v>
+        <v>1444</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1621,13 +1621,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48">
-        <v>1454</v>
+        <v>1415</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1641,13 +1641,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49">
-        <v>1407</v>
+        <v>1454</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1661,16 +1661,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50">
-        <v>1459</v>
+        <v>1407</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1681,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
       <c r="D51">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1701,13 +1701,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52">
-        <v>1389</v>
+        <v>1465</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -1741,16 +1741,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54">
-        <v>1434</v>
+        <v>1389</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1761,16 +1761,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
       <c r="D55">
-        <v>1337</v>
+        <v>1434</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1781,13 +1781,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
       <c r="D56">
-        <v>1401</v>
+        <v>1337</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1801,16 +1801,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="D57">
-        <v>1468</v>
+        <v>1401</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1821,13 +1821,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
       </c>
       <c r="D58">
-        <v>1445</v>
+        <v>1468</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -1841,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
@@ -1901,16 +1901,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1921,13 +1921,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63">
-        <v>1335</v>
+        <v>1437</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
         <v>75</v>
       </c>
-      <c r="C64" t="s">
-        <v>76</v>
-      </c>
       <c r="D64">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1961,13 +1961,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>1410</v>
+        <v>1301</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1981,13 +1981,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>1235</v>
+        <v>1410</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2001,16 +2001,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>1385</v>
+        <v>1235</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2021,16 +2021,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>1440</v>
+        <v>1385</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2041,16 +2041,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>1469</v>
+        <v>1440</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2061,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
@@ -2070,7 +2070,7 @@
         <v>1458</v>
       </c>
       <c r="E70">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2081,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
@@ -2121,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
@@ -2141,16 +2141,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>1441</v>
+        <v>1469</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2161,16 +2161,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>1287</v>
+        <v>1441</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2181,16 +2181,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>1330</v>
+        <v>1287</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2201,13 +2201,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>1470</v>
+        <v>1330</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2221,16 +2221,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>1365</v>
+        <v>1470</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2241,19 +2241,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>91</v>
       </c>
       <c r="D79">
-        <v>1320</v>
+        <v>1365</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2261,16 +2261,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80">
-        <v>1419</v>
+        <v>1320</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2281,16 +2281,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81">
-        <v>1326</v>
+        <v>1419</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82">
-        <v>1453</v>
+        <v>1326</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2321,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83">
-        <v>1480</v>
+        <v>1453</v>
       </c>
       <c r="E83">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2341,16 +2341,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D84">
-        <v>1417</v>
+        <v>1480</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2361,16 +2361,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D85">
-        <v>1452</v>
+        <v>1417</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2381,19 +2381,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D86">
-        <v>1420</v>
+        <v>1452</v>
       </c>
       <c r="E86">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2401,19 +2401,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
         <v>101</v>
       </c>
       <c r="D87">
-        <v>1450</v>
+        <v>1420</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2421,16 +2421,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D88">
-        <v>1406</v>
+        <v>1450</v>
       </c>
       <c r="E88">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2441,19 +2441,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D89">
-        <v>1354</v>
+        <v>1406</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_CT.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_CT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>STATE</t>
   </si>
@@ -41,57 +41,51 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>MATCH 3 TRIPLER</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>FAST $50s</t>
+  </si>
+  <si>
+    <t>LUCKY GEMS</t>
+  </si>
+  <si>
     <t>DECADES OF DOLLARS</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>FIND THE 9s</t>
+  </si>
+  <si>
+    <t>ACES HIGH 25TH ED.</t>
+  </si>
+  <si>
+    <t>LOTS OF LOOT</t>
   </si>
   <si>
     <t>CLOVER</t>
   </si>
   <si>
-    <t>MATCH 3 TRIPLER</t>
-  </si>
-  <si>
-    <t>FAST $50s</t>
-  </si>
-  <si>
-    <t>LUCKY GEMS</t>
-  </si>
-  <si>
-    <t>FIND THE 9s</t>
-  </si>
-  <si>
-    <t>ACES HIGH 25TH ED.</t>
-  </si>
-  <si>
-    <t>LOTS OF LOOT</t>
-  </si>
-  <si>
     <t>CASH ON THE SPOT</t>
   </si>
   <si>
     <t>WIN $2K A MNTH FOR LFE 2ND ED</t>
   </si>
   <si>
+    <t>HOLIDAY CASH</t>
+  </si>
+  <si>
     <t>ACES HIGH 24TH ED.</t>
   </si>
   <si>
-    <t>HOLIDAY CASH</t>
-  </si>
-  <si>
     <t>DOUBLE BLACKJACK</t>
   </si>
   <si>
     <t>LUCKY 7S</t>
   </si>
   <si>
-    <t>DOLLAR SIGNS</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
@@ -116,30 +110,27 @@
     <t>25 GRAND</t>
   </si>
   <si>
+    <t>BINGO</t>
+  </si>
+  <si>
+    <t>MEGA MONEY 25TH EDITION</t>
+  </si>
+  <si>
     <t>CASH CRAZE</t>
   </si>
   <si>
+    <t>WILD BINGO</t>
+  </si>
+  <si>
     <t>2X THE MONEY 9TH EDITION</t>
   </si>
   <si>
-    <t>MEGA MONEY 25TH EDITION</t>
-  </si>
-  <si>
     <t>HOT 7s</t>
   </si>
   <si>
-    <t>BINGO</t>
-  </si>
-  <si>
     <t>HOLIDAY LUCK</t>
   </si>
   <si>
-    <t>WORD MULTIPLIER</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>LOTERIA GRANDE</t>
   </si>
   <si>
-    <t>3X THE CASH 6TH ED.</t>
-  </si>
-  <si>
     <t>3X THE CASH 7TH EDITION</t>
   </si>
   <si>
@@ -161,30 +149,24 @@
     <t>TRIPLE YOUR LUCK</t>
   </si>
   <si>
+    <t>WIN UP TO $5,000 A MONTH FOR LIFE</t>
+  </si>
+  <si>
+    <t>50 GRAND</t>
+  </si>
+  <si>
     <t>CASHWORD 26</t>
   </si>
   <si>
     <t>3X THE CASH 8TH EDITION</t>
   </si>
   <si>
-    <t>WIN UP TO $5,000 A MONTH FOR LIFE</t>
-  </si>
-  <si>
-    <t>50 GRAND</t>
-  </si>
-  <si>
-    <t>TREASURE HUNT</t>
-  </si>
-  <si>
     <t>INSTANT KENO</t>
   </si>
   <si>
     <t>CASHINGO 2ND EDITION</t>
   </si>
   <si>
-    <t>CA$HWORD 25</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -194,63 +176,51 @@
     <t>CASHLICIOUS</t>
   </si>
   <si>
+    <t>JEWELS GALORE</t>
+  </si>
+  <si>
     <t>5X THE MONEY 10TH EDITION</t>
   </si>
   <si>
-    <t>JEWELS GALORE</t>
-  </si>
-  <si>
-    <t>PATRIOTS</t>
-  </si>
-  <si>
     <t>" 7 "</t>
   </si>
   <si>
     <t>HOLIDAY WISHES</t>
   </si>
   <si>
+    <t>5X THE MONEY 11TH EDITION</t>
+  </si>
+  <si>
     <t>75 GRAND</t>
   </si>
   <si>
     <t>SUPER CA$HWORD 19</t>
   </si>
   <si>
-    <t>5X THE MONEY 11TH EDITION</t>
-  </si>
-  <si>
     <t>RUN THE TABLE</t>
   </si>
   <si>
-    <t>GIANTS</t>
+    <t>$5,000 OVERLOAD</t>
+  </si>
+  <si>
+    <t>WIN UP TO $7,500 A MONTH FOR LIFE 3RD ED</t>
+  </si>
+  <si>
+    <t>SUPER CASHWORD 20</t>
+  </si>
+  <si>
+    <t>CASH CELEBRATION</t>
   </si>
   <si>
     <t>SPICY 7s</t>
   </si>
   <si>
-    <t>$5,000 OVERLOAD</t>
-  </si>
-  <si>
-    <t>SUPER CASHWORD 20</t>
-  </si>
-  <si>
-    <t>WIN UP TO $7,500 A MONTH FOR LIFE 3RD ED</t>
-  </si>
-  <si>
-    <t>CASH CELEBRATION</t>
-  </si>
-  <si>
     <t>BLACKJACK SUPREME</t>
   </si>
   <si>
-    <t>WIN UP TO $7,500 A MONTH FOR LIFE 2ND ED.</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
-    <t>PINBALL WIZARD XX</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUCKY TIMES 10 </t>
   </si>
   <si>
@@ -260,24 +230,24 @@
     <t>10X CASH 12TH EDITION</t>
   </si>
   <si>
+    <t>HOT -N- SPICY 7s</t>
+  </si>
+  <si>
     <t>PINBALL WIZARD XXII</t>
   </si>
   <si>
     <t>10X CASH 13TH EDITION</t>
   </si>
   <si>
+    <t>PREMIERE PLAY</t>
+  </si>
+  <si>
     <t>$100,000 CASHWORD 9</t>
   </si>
   <si>
-    <t>PREMIERE PLAY</t>
-  </si>
-  <si>
     <t>WIN UP TO $10,000 A MONTH FOR LIFE 2nd ED</t>
   </si>
   <si>
-    <t>HOT -N- SPICY 7s</t>
-  </si>
-  <si>
     <t>ESCAPE TO FOXWOODS®</t>
   </si>
   <si>
@@ -290,46 +260,40 @@
     <t>SPARKLE PLAY</t>
   </si>
   <si>
-    <t>$100,000 CASHWORD 8</t>
-  </si>
-  <si>
-    <t>2019-03-10</t>
-  </si>
-  <si>
     <t>STAR PLATINUM PLAY</t>
   </si>
   <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>20X CASH 2ND ED</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>20X CASH 4TH EDITION</t>
+  </si>
+  <si>
+    <t>CONNECTICUT MILLIONAIRES CLUB</t>
+  </si>
+  <si>
+    <t>$250,000 CASHWORD 5</t>
+  </si>
+  <si>
+    <t>$500,000 EXTREME CASH</t>
+  </si>
+  <si>
     <t>$250,000 CA$HWORD 4</t>
   </si>
   <si>
-    <t>20X CASH 2ND ED</t>
-  </si>
-  <si>
-    <t>MONEY</t>
-  </si>
-  <si>
-    <t>20X CASH 4TH EDITION</t>
-  </si>
-  <si>
-    <t>CONNECTICUT MILLIONAIRES CLUB</t>
-  </si>
-  <si>
-    <t>$500,000 EXTREME CASH</t>
-  </si>
-  <si>
-    <t>20X CASH 3RD EDITION</t>
-  </si>
-  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
+    <t>30X CASH 5TH EDITION</t>
+  </si>
+  <si>
     <t>$5,000,000 ULTIMATE</t>
-  </si>
-  <si>
-    <t>30X CASH 5TH EDITION</t>
   </si>
 </sst>
 </file>
@@ -668,7 +632,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1451</v>
+        <v>1383</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -727,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -747,10 +711,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1383</v>
+        <v>1399</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -767,10 +731,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -787,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1399</v>
+        <v>1351</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -807,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1351</v>
+        <v>1433</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -827,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1433</v>
+        <v>1404</v>
       </c>
       <c r="E8">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -847,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1404</v>
+        <v>1477</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -907,10 +871,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1324</v>
+        <v>1461</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -927,10 +891,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1461</v>
+        <v>1324</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -981,19 +945,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>1342</v>
+        <v>1427</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1001,13 +965,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1021,13 +985,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
       <c r="D18">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1041,13 +1005,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1061,16 +1025,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1081,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>1376</v>
+        <v>1432</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1101,16 +1065,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1121,13 +1085,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1141,16 +1105,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>1446</v>
+        <v>1398</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1161,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>1424</v>
+        <v>1358</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1181,16 +1145,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>1442</v>
+        <v>1424</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1201,16 +1165,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>1358</v>
+        <v>1464</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1221,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1241,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>1398</v>
+        <v>1467</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1261,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>1462</v>
@@ -1281,19 +1245,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1301,13 +1265,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>1374</v>
+        <v>1323</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1321,13 +1285,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
       <c r="D33">
-        <v>1323</v>
+        <v>1355</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1341,13 +1305,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>1331</v>
+        <v>1421</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1361,16 +1325,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>1355</v>
+        <v>1473</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1381,16 +1345,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>1421</v>
+        <v>1373</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1401,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>1473</v>
+        <v>1447</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1421,16 +1385,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>1436</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1441,16 +1405,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>1403</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1461,16 +1425,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1481,16 +1445,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>1447</v>
+        <v>1361</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1501,16 +1465,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>1413</v>
+        <v>1304</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1521,16 +1485,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>1362</v>
+        <v>1444</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1541,16 +1505,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>1361</v>
+        <v>1454</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1561,19 +1525,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>1405</v>
+        <v>1415</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1581,16 +1545,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>1304</v>
+        <v>1459</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1601,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
       <c r="D47">
-        <v>1444</v>
+        <v>1465</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1621,16 +1585,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>1415</v>
+        <v>1434</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1641,16 +1605,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1661,13 +1625,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50">
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1681,16 +1645,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51">
-        <v>1459</v>
+        <v>1337</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1701,16 +1665,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1721,16 +1685,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>1448</v>
+        <v>1423</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1741,16 +1705,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>1389</v>
+        <v>1430</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1761,16 +1725,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>1434</v>
+        <v>1445</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1781,16 +1745,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>1337</v>
+        <v>1468</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1801,16 +1765,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D57">
-        <v>1401</v>
+        <v>1437</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1821,16 +1785,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58">
-        <v>1468</v>
+        <v>1410</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1841,16 +1805,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59">
-        <v>1449</v>
+        <v>1235</v>
       </c>
       <c r="E59">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1861,16 +1825,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>1430</v>
+        <v>1385</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1881,16 +1845,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>1423</v>
+        <v>1469</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1901,16 +1865,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1921,16 +1885,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63">
-        <v>1437</v>
+        <v>1458</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1941,16 +1905,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64">
-        <v>1335</v>
+        <v>1460</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1961,16 +1925,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>1301</v>
+        <v>1439</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1981,16 +1945,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
         <v>76</v>
       </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
       <c r="D66">
-        <v>1410</v>
+        <v>1364</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2001,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67">
-        <v>1235</v>
+        <v>1441</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2021,16 +1985,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68">
-        <v>1385</v>
+        <v>1287</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2041,16 +2005,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69">
-        <v>1440</v>
+        <v>1330</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2061,16 +2025,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="E70">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2081,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71">
-        <v>1439</v>
+        <v>1320</v>
       </c>
       <c r="E71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2101,16 +2065,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72">
-        <v>1460</v>
+        <v>1326</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2121,16 +2085,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73">
-        <v>1364</v>
+        <v>1453</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2141,16 +2105,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74">
-        <v>1469</v>
+        <v>1480</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2161,16 +2125,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75">
-        <v>1441</v>
+        <v>1417</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2181,13 +2145,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>1287</v>
+        <v>1485</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2201,13 +2165,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77">
-        <v>1330</v>
+        <v>1452</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2221,16 +2185,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78">
-        <v>1470</v>
+        <v>1419</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2241,19 +2205,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
         <v>91</v>
       </c>
       <c r="D79">
-        <v>1365</v>
+        <v>1406</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2261,198 +2225,18 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D80">
-        <v>1320</v>
+        <v>1450</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81">
-        <v>1419</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82">
-        <v>1326</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83">
-        <v>1453</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84">
-        <v>1480</v>
-      </c>
-      <c r="E84">
-        <v>75</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85">
-        <v>1417</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86">
-        <v>1452</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87">
-        <v>1420</v>
-      </c>
-      <c r="E87">
-        <v>49</v>
-      </c>
-      <c r="F87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88">
-        <v>1450</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89">
-        <v>1406</v>
-      </c>
-      <c r="E89">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s">
         <v>9</v>
       </c>
     </row>
